--- a/referencias_extras.xlsx
+++ b/referencias_extras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/202108-r4ds-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E09D92D-987C-0B4C-9BE9-A114D470FC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE29D8C8-412C-BE46-BA95-8B88FA0CF2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25720" windowHeight="14940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>url</t>
   </si>
   <si>
-    <t>Código utilizado para baixar os dados da série Rick and Morty utilizados na primeira aula</t>
-  </si>
-  <si>
     <t>Regex</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t>https://github.com/williamorim/brasileirao</t>
+  </si>
+  <si>
+    <t>Dados extras</t>
   </si>
 </sst>
 </file>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -468,13 +468,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -482,13 +482,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -496,13 +496,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -510,13 +510,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -524,13 +524,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/referencias_extras.xlsx
+++ b/referencias_extras.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>aula</t>
   </si>
@@ -191,6 +191,76 @@
         <rFont val="Calibri"/>
       </rPr>
       <t>https://r4ds.had.co.nz/iteration.html</t>
+    </r>
+  </si>
+  <si>
+    <t>Anúncio do {rlang} 0.4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.tidyverse.org/blog/2019/06/rlang-0-4-0/</t>
+    </r>
+  </si>
+  <si>
+    <t>Interpolação no {rlang}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.tidyverse.org/blog/2020/02/glue-strings-and-tidy-eval/</t>
+    </r>
+  </si>
+  <si>
+    <t>Programando com o {dplyr}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://dplyr.tidyverse.org/articles/programming.html</t>
+    </r>
+  </si>
+  <si>
+    <t>Metaprogramação</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://adv-r.hadley.nz/metaprogramming.html</t>
+    </r>
+  </si>
+  <si>
+    <t>{rlang} para Filhotes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://blog.curso-r.com/posts/2021-07-27-rlang-para-filhotes</t>
     </r>
   </si>
 </sst>
@@ -238,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -403,6 +473,54 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="8"/>
@@ -414,12 +532,12 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="10"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,7 +547,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -484,10 +602,22 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -650,13 +780,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -755,10 +879,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1013,13 +1137,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1332,10 +1450,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1586,7 +1704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1862,13 +1980,88 @@
       <c r="B18" t="s" s="17">
         <v>33</v>
       </c>
-      <c r="C18" t="s" s="18">
+      <c r="C18" t="s" s="14">
         <v>42</v>
       </c>
       <c r="D18" t="s" s="17">
         <v>43</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" s="19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s" s="20">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s" s="14">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s" s="20">
+        <v>45</v>
+      </c>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" s="19">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s" s="20">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s" s="22">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s" s="20">
+        <v>47</v>
+      </c>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" s="19">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s" s="20">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s" s="23">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s" s="20">
+        <v>49</v>
+      </c>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" s="19">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s" s="20">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s" s="14">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s" s="20">
+        <v>51</v>
+      </c>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" s="19">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s" s="20">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s" s="22">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s" s="20">
+        <v>53</v>
+      </c>
+      <c r="E23" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1878,6 +2071,11 @@
     <hyperlink ref="D16" r:id="rId4" location="" tooltip="" display="https://raw.githubusercontent.com/rstudio/cheatsheets/master/purrr.pdf"/>
     <hyperlink ref="D17" r:id="rId5" location="" tooltip="" display="https://jennybc.github.io/purrr-tutorial/"/>
     <hyperlink ref="D18" r:id="rId6" location="" tooltip="" display="https://r4ds.had.co.nz/iteration.html"/>
+    <hyperlink ref="D19" r:id="rId7" location="" tooltip="" display="https://www.tidyverse.org/blog/2019/06/rlang-0-4-0/"/>
+    <hyperlink ref="D20" r:id="rId8" location="" tooltip="" display="https://www.tidyverse.org/blog/2020/02/glue-strings-and-tidy-eval/"/>
+    <hyperlink ref="D21" r:id="rId9" location="" tooltip="" display="https://dplyr.tidyverse.org/articles/programming.html"/>
+    <hyperlink ref="D22" r:id="rId10" location="" tooltip="" display="https://adv-r.hadley.nz/metaprogramming.html"/>
+    <hyperlink ref="D23" r:id="rId11" location="" tooltip="" display="https://blog.curso-r.com/posts/2021-07-27-rlang-para-filhotes"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -1895,8 +2093,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="10.5" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="10.5" style="20" customWidth="1"/>
+    <col min="1" max="5" width="10.5" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="10.5" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
